--- a/Nvprof summary/Data placement summary.xlsx
+++ b/Nvprof summary/Data placement summary.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3220" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="520" windowWidth="33920" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data placemtn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="69">
   <si>
     <t>S_Data</t>
   </si>
@@ -71,9 +71,6 @@
     <t>5.cu</t>
   </si>
   <si>
-    <t>7o</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Bs</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>shared</t>
   </si>
   <si>
@@ -110,21 +104,12 @@
     <t>global</t>
   </si>
   <si>
-    <t>tex1D'</t>
-  </si>
-  <si>
     <t>diif block size w/ 8</t>
   </si>
   <si>
-    <t>ldg</t>
-  </si>
-  <si>
     <t>d_md_force</t>
   </si>
   <si>
-    <t>md</t>
-  </si>
-  <si>
     <t>d_md_position</t>
   </si>
   <si>
@@ -228,6 +213,24 @@
   </si>
   <si>
     <t>__ldg</t>
+  </si>
+  <si>
+    <t>0.cu</t>
+  </si>
+  <si>
+    <t>7.cu</t>
+  </si>
+  <si>
+    <t>Tex1D</t>
+  </si>
+  <si>
+    <t>8.cu</t>
+  </si>
+  <si>
+    <t>9.cu</t>
+  </si>
+  <si>
+    <t>6o</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -363,6 +366,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,24 +661,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -684,12 +690,12 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -701,12 +707,12 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -718,12 +724,12 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -733,14 +739,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -752,85 +758,81 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1</v>
+      <c r="A11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -838,64 +840,64 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>2</v>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>3</v>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -903,20 +905,20 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>5</v>
+      <c r="A15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -924,20 +926,20 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>6</v>
+      <c r="A16" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -945,20 +947,20 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>7</v>
+      <c r="A17" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -967,42 +969,40 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>8</v>
+      <c r="A19" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1010,852 +1010,883 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>9</v>
+      <c r="A20" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
+      <c r="A23" s="4">
+        <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>6</v>
+      <c r="A29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>49</v>
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>22</v>
+      <c r="A37" s="10">
+        <v>6</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>6</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>22</v>
+      <c r="A38" s="4">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>11</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="3"/>
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="E55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="B56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
         <v>2</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="B57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>3</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>4</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>43</v>
+      <c r="A60" s="10">
+        <v>6</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>7</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="9"/>
+      <c r="B62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
